--- a/automationpractice/testData/Test.xlsx
+++ b/automationpractice/testData/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easha\OneDrive\Desktop\Automation\WebAutomationFrameWork\automationpractice\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFF24B-C940-4421-A52D-41C69F900F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137FBDE8-1394-48E7-B4CA-A3B23B31B7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="3750" windowWidth="14115" windowHeight="10950" xr2:uid="{D4577647-BDCD-4B73-9ED0-6AD92C25A2D3}"/>
+    <workbookView xWindow="13365" yWindow="3120" windowWidth="14115" windowHeight="10950" xr2:uid="{D4577647-BDCD-4B73-9ED0-6AD92C25A2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>helloo</t>
+  </si>
+  <si>
+    <t>hiiacc</t>
+  </si>
+  <si>
+    <t>eee@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4072C5-AC3B-4681-B605-131584BE6100}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,9 +440,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{63E41C65-75D8-49F1-96E8-08F270C0894F}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{412CC810-8512-4D2F-8966-457CC7A62DBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
